--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajikumarjs/personal/reli_engine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4273A1-5A6E-4043-B0BB-CD11D659654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6CB2A-C903-4C43-9A8B-FC2E0890BD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" activeTab="1" xr2:uid="{C431CB80-CA07-A34D-829D-C72251BD8198}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{C431CB80-CA07-A34D-829D-C72251BD8198}"/>
   </bookViews>
   <sheets>
     <sheet name="component" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
-  <si>
-    <t>resistor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="97">
   <si>
     <t>carbon film</t>
   </si>
@@ -108,26 +105,303 @@
     <t>id</t>
   </si>
   <si>
-    <t>PiT</t>
-  </si>
-  <si>
-    <t>refFIT</t>
-  </si>
-  <si>
-    <t>Transistor</t>
+    <t>Pi_T</t>
+  </si>
+  <si>
+    <t>Pi_U</t>
+  </si>
+  <si>
+    <t>Pi_D</t>
+  </si>
+  <si>
+    <t>Pi_Q</t>
+  </si>
+  <si>
+    <t>Pi_L</t>
+  </si>
+  <si>
+    <t>Pi_K</t>
+  </si>
+  <si>
+    <t>Pi_E</t>
+  </si>
+  <si>
+    <t>Pi_S</t>
+  </si>
+  <si>
+    <t>Pi_I</t>
+  </si>
+  <si>
+    <t>Contactors</t>
+  </si>
+  <si>
+    <t>1-pole DC contractors</t>
+  </si>
+  <si>
+    <t>2-pole DC contractors</t>
+  </si>
+  <si>
+    <t>λref</t>
+  </si>
+  <si>
+    <t>Transistors</t>
+  </si>
+  <si>
+    <t>Bipolar, universal</t>
+  </si>
+  <si>
+    <t>TO18, TO92, SOT(D)(3)23/similar</t>
+  </si>
+  <si>
+    <t>Transistor arrays 1</t>
+  </si>
+  <si>
+    <t>TO5, T039, SOT223, SO8, SMA-SMC</t>
+  </si>
+  <si>
+    <t>Plug-in contacts that must be inserted without electrical load</t>
+  </si>
+  <si>
+    <t>Memories</t>
+  </si>
+  <si>
+    <t>Bipolar RAM</t>
+  </si>
+  <si>
+    <t>Complexity in bits 32K - 64K</t>
+  </si>
+  <si>
+    <t>ROM mask</t>
+  </si>
+  <si>
+    <t>Complexity in bits 128K - 256 K</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>Complexity in bits 512K - 1M</t>
+  </si>
+  <si>
+    <t>≤ 25</t>
+  </si>
+  <si>
+    <t>Analog integrated circuit</t>
+  </si>
+  <si>
+    <t>Operational amplifiers,comparators and voltage monitors   - bipolar,BIFET</t>
+  </si>
+  <si>
+    <t>Degree of integration &gt; 30- 300</t>
+  </si>
+  <si>
+    <t>env_varibale</t>
+  </si>
+  <si>
+    <t>env_value</t>
+  </si>
+  <si>
+    <t>≤ 0.3</t>
+  </si>
+  <si>
+    <t>Digital logic families and bus interfaces,busdriver and receiver circuit</t>
+  </si>
+  <si>
+    <t>CMOS B</t>
+  </si>
+  <si>
+    <t>Operating voltage U in V</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>Universal diode</t>
+  </si>
+  <si>
+    <t>Schottky diode</t>
+  </si>
+  <si>
+    <t>Z - diode</t>
+  </si>
+  <si>
+    <t>power semiconductor</t>
+  </si>
+  <si>
+    <t>Triac's,Diac's</t>
+  </si>
+  <si>
+    <t>Thyristors</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Metalized film</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>Metalized paper</t>
+  </si>
+  <si>
+    <t>Inductors</t>
+  </si>
+  <si>
+    <t>U/Umax ≤ 0.1, Uref/Umax 0.5</t>
+  </si>
+  <si>
+    <t>U/Umax 0.7, Uref/Umax 0.5</t>
+  </si>
+  <si>
+    <t>U/Umax 1, Uref/Umax 0.5</t>
+  </si>
+  <si>
+    <t>Degree of Integration LSI &gt; 100, &gt; 500</t>
+  </si>
+  <si>
+    <t>Inductors for EMC applications ≤ 3A</t>
+  </si>
+  <si>
+    <t>Inductors for EMC applications &gt;3A</t>
+  </si>
+  <si>
+    <t>High frequency inductors and transforms</t>
+  </si>
+  <si>
+    <t>≤25</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>automotive relays</t>
+  </si>
+  <si>
+    <t>Plastic-sealed relays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F &gt; 20  Cn </t>
+  </si>
+  <si>
+    <t>50 Cn &lt;F &lt; 100cN</t>
+  </si>
+  <si>
+    <t>Low-duty relays</t>
+  </si>
+  <si>
+    <t>Plastic-sealed relays with twin contacts</t>
+  </si>
+  <si>
+    <t>Mean Actual Ambient Temperature ᶿu</t>
+  </si>
+  <si>
+    <t>≤ 40</t>
+  </si>
+  <si>
+    <t>41 - 70</t>
+  </si>
+  <si>
+    <t>101 - 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switches and buttons for higher electrical load </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 200</t>
+    </r>
+  </si>
+  <si>
+    <t>Current ratio (I/Ie)</t>
+  </si>
+  <si>
+    <t>Voltage ratio U/Umax</t>
+  </si>
+  <si>
+    <t>Voltage  ratio U/Umax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switches and buttons for light-current applications </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="American Typewriter"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +424,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,200 +786,763 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2D38E2-A89A-BE40-8734-9D5919222499}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0.3</v>
-      </c>
-      <c r="F2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>55</v>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -687,286 +1550,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D113D345-D12B-094C-864F-935BFCFCA585}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>55</v>
-      </c>
-      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>55</v>
-      </c>
-      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>55</v>
-      </c>
-      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1">
         <v>60</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>55</v>
-      </c>
-      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1">
         <v>70</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>55</v>
-      </c>
-      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
         <v>80</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>55</v>
-      </c>
-      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
         <v>90</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>55</v>
-      </c>
-      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
         <v>100</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>55</v>
-      </c>
-      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
         <v>110</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>55</v>
-      </c>
-      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
         <v>120</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>55</v>
-      </c>
-      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
         <v>125</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
         <v>85</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
         <v>85</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
         <v>85</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>40</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.35</v>
       </c>
     </row>
@@ -975,15 +1873,15 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
         <v>85</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.45</v>
       </c>
     </row>
@@ -992,15 +1890,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
         <v>85</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>60</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -1009,15 +1907,15 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
         <v>85</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>70</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.71</v>
       </c>
     </row>
@@ -1026,15 +1924,15 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
         <v>85</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>80</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.89</v>
       </c>
     </row>
@@ -1043,15 +1941,15 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
         <v>85</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>90</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1060,15 +1958,15 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
         <v>85</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>100</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>1.4</v>
       </c>
     </row>
@@ -1077,15 +1975,15 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
         <v>85</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>110</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>1.8</v>
       </c>
     </row>
@@ -1094,15 +1992,15 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
         <v>85</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>120</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1111,15 +2009,15 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
         <v>85</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>125</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>2.6</v>
       </c>
     </row>
@@ -1128,15 +2026,15 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>55</v>
-      </c>
-      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1">
         <v>25</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.79</v>
       </c>
     </row>
@@ -1145,15 +2043,15 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27">
-        <v>55</v>
-      </c>
-      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1">
         <v>30</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.82</v>
       </c>
     </row>
@@ -1162,15 +2060,15 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>55</v>
-      </c>
-      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1">
         <v>40</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.89</v>
       </c>
     </row>
@@ -1179,15 +2077,15 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>55</v>
-      </c>
-      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1">
         <v>50</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.96</v>
       </c>
     </row>
@@ -1196,15 +2094,15 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>55</v>
-      </c>
-      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1213,15 +2111,15 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>55</v>
-      </c>
-      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1">
         <v>70</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>1.2</v>
       </c>
     </row>
@@ -1230,15 +2128,15 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>55</v>
-      </c>
-      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1">
         <v>80</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>1.5</v>
       </c>
     </row>
@@ -1247,15 +2145,15 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>55</v>
-      </c>
-      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1">
         <v>90</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1264,15 +2162,15 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>55</v>
-      </c>
-      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1">
         <v>100</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1281,15 +2179,15 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>55</v>
-      </c>
-      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1">
         <v>110</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -1298,15 +2196,15 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>55</v>
-      </c>
-      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1">
         <v>120</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>19</v>
       </c>
     </row>
@@ -1315,15 +2213,15 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>55</v>
-      </c>
-      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1">
         <v>125</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>29</v>
       </c>
     </row>
@@ -1332,15 +2230,15 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
         <v>60</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>25</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -1349,15 +2247,15 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1">
         <v>60</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>30</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>0.78</v>
       </c>
     </row>
@@ -1366,15 +2264,15 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
         <v>60</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>40</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0.84</v>
       </c>
     </row>
@@ -1383,15 +2281,15 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
         <v>60</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>50</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>0.91</v>
       </c>
     </row>
@@ -1400,15 +2298,15 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
         <v>60</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>60</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1417,15 +2315,15 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
         <v>60</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>70</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1434,15 +2332,15 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1">
         <v>60</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>80</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>1.5</v>
       </c>
     </row>
@@ -1451,15 +2349,15 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
         <v>60</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>90</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -1468,15 +2366,15 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1">
         <v>60</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>100</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1485,15 +2383,15 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1">
         <v>60</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>110</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>8.4</v>
       </c>
     </row>
@@ -1502,15 +2400,15 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1">
         <v>60</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>120</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1519,15 +2417,15 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1">
         <v>60</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>125</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>27</v>
       </c>
     </row>
@@ -1536,15 +2434,15 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
         <v>85</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>25</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>0.43</v>
       </c>
     </row>
@@ -1553,15 +2451,15 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1">
         <v>85</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>30</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>0.44</v>
       </c>
     </row>
@@ -1570,15 +2468,15 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1">
         <v>85</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>40</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>0.48</v>
       </c>
     </row>
@@ -1587,15 +2485,15 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1">
         <v>85</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>50</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>0.52</v>
       </c>
     </row>
@@ -1604,15 +2502,15 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1">
         <v>85</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>60</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -1621,15 +2519,15 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1">
         <v>85</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>70</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>0.66</v>
       </c>
     </row>
@@ -1638,15 +2536,15 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1">
         <v>85</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>80</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>0.83</v>
       </c>
     </row>
@@ -1655,15 +2553,15 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1">
         <v>85</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>90</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>1.3</v>
       </c>
     </row>
@@ -1672,15 +2570,15 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1">
         <v>85</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>100</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1689,15 +2587,15 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1">
         <v>85</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>110</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>4.8</v>
       </c>
     </row>
@@ -1706,15 +2604,15 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1">
         <v>85</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>120</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1723,15 +2621,15 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1">
         <v>85</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>125</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>15</v>
       </c>
     </row>
@@ -1740,15 +2638,15 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62">
-        <v>55</v>
-      </c>
-      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1">
+        <v>55</v>
+      </c>
+      <c r="D62" s="1">
         <v>25</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>0.79</v>
       </c>
     </row>
@@ -1757,15 +2655,15 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63">
-        <v>55</v>
-      </c>
-      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="C63" s="1">
+        <v>55</v>
+      </c>
+      <c r="D63" s="1">
         <v>30</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>0.82</v>
       </c>
     </row>
@@ -1774,15 +2672,15 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64">
-        <v>55</v>
-      </c>
-      <c r="D64">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1">
+        <v>55</v>
+      </c>
+      <c r="D64" s="1">
         <v>40</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>0.89</v>
       </c>
     </row>
@@ -1791,15 +2689,15 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>55</v>
-      </c>
-      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1">
+        <v>55</v>
+      </c>
+      <c r="D65" s="1">
         <v>50</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>0.96</v>
       </c>
     </row>
@@ -1808,15 +2706,15 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66">
-        <v>55</v>
-      </c>
-      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1">
+        <v>55</v>
+      </c>
+      <c r="D66" s="1">
         <v>60</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1825,15 +2723,15 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67">
-        <v>55</v>
-      </c>
-      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1">
+        <v>55</v>
+      </c>
+      <c r="D67" s="1">
         <v>70</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>1.2</v>
       </c>
     </row>
@@ -1842,15 +2740,15 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68">
-        <v>55</v>
-      </c>
-      <c r="D68">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1">
+        <v>55</v>
+      </c>
+      <c r="D68" s="1">
         <v>80</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>1.5</v>
       </c>
     </row>
@@ -1859,15 +2757,15 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69">
-        <v>55</v>
-      </c>
-      <c r="D69">
+        <v>18</v>
+      </c>
+      <c r="C69" s="1">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1">
         <v>90</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1876,15 +2774,15 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70">
-        <v>55</v>
-      </c>
-      <c r="D70">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1">
+        <v>55</v>
+      </c>
+      <c r="D70" s="1">
         <v>100</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1893,15 +2791,15 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71">
-        <v>55</v>
-      </c>
-      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1">
+        <v>55</v>
+      </c>
+      <c r="D71" s="1">
         <v>110</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -1910,15 +2808,15 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72">
-        <v>55</v>
-      </c>
-      <c r="D72">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1">
+        <v>55</v>
+      </c>
+      <c r="D72" s="1">
         <v>120</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>19</v>
       </c>
     </row>
@@ -1927,15 +2825,15 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73">
-        <v>55</v>
-      </c>
-      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1">
+        <v>55</v>
+      </c>
+      <c r="D73" s="1">
         <v>125</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>29</v>
       </c>
     </row>
@@ -1944,15 +2842,15 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74">
+        <v>18</v>
+      </c>
+      <c r="C74" s="1">
         <v>60</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>25</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -1961,15 +2859,15 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1">
         <v>60</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>30</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>0.78</v>
       </c>
     </row>
@@ -1978,15 +2876,15 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1">
         <v>60</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>40</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>0.84</v>
       </c>
     </row>
@@ -1995,15 +2893,15 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1">
         <v>60</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>50</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>0.91</v>
       </c>
     </row>
@@ -2012,15 +2910,15 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="C78" s="1">
         <v>60</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>60</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2029,15 +2927,15 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79">
+        <v>18</v>
+      </c>
+      <c r="C79" s="1">
         <v>60</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>70</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -2046,15 +2944,15 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1">
         <v>60</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>80</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>1.5</v>
       </c>
     </row>
@@ -2063,15 +2961,15 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1">
         <v>60</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>90</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2080,15 +2978,15 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1">
         <v>60</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>100</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2097,15 +2995,15 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1">
         <v>60</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>110</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>8.4</v>
       </c>
     </row>
@@ -2114,15 +3012,15 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1">
         <v>60</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>120</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>18</v>
       </c>
     </row>
@@ -2131,15 +3029,15 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1">
         <v>60</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>125</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>27</v>
       </c>
     </row>
@@ -2148,15 +3046,15 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1">
         <v>85</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>25</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>0.43</v>
       </c>
     </row>
@@ -2165,15 +3063,15 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1">
         <v>85</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>30</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>0.44</v>
       </c>
     </row>
@@ -2182,15 +3080,15 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="C88" s="1">
         <v>85</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>40</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>0.48</v>
       </c>
     </row>
@@ -2199,15 +3097,15 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1">
         <v>85</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>50</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>0.52</v>
       </c>
     </row>
@@ -2216,15 +3114,15 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90">
+        <v>18</v>
+      </c>
+      <c r="C90" s="1">
         <v>85</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>60</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -2233,15 +3131,15 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1">
         <v>85</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>70</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>0.66</v>
       </c>
     </row>
@@ -2250,15 +3148,15 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1">
         <v>85</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>80</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>0.83</v>
       </c>
     </row>
@@ -2267,15 +3165,15 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93">
+        <v>18</v>
+      </c>
+      <c r="C93" s="1">
         <v>85</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>90</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>1.3</v>
       </c>
     </row>
@@ -2284,15 +3182,15 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="C94" s="1">
         <v>85</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>100</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2301,15 +3199,15 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95">
+        <v>18</v>
+      </c>
+      <c r="C95" s="1">
         <v>85</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>110</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>4.8</v>
       </c>
     </row>
@@ -2318,495 +3216,2028 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96">
+        <v>18</v>
+      </c>
+      <c r="C96" s="1">
         <v>85</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>120</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="C97" s="1">
         <v>85</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>125</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="1">
+        <v>55</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="1">
+        <v>55</v>
+      </c>
+      <c r="D100" s="1">
+        <v>55</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="1">
+        <v>55</v>
+      </c>
+      <c r="D101" s="1">
+        <v>175</v>
+      </c>
+      <c r="E101" s="1">
+        <v>238</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="1">
+        <v>75</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="1">
+        <v>75</v>
+      </c>
+      <c r="D103" s="1">
+        <v>55</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="1">
+        <v>75</v>
+      </c>
+      <c r="D104" s="1">
+        <v>175</v>
+      </c>
+      <c r="E104" s="1">
+        <v>67</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" s="1">
+        <v>55</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="1">
+        <v>55</v>
+      </c>
+      <c r="D106" s="1">
+        <v>55</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="1">
+        <v>55</v>
+      </c>
+      <c r="D107" s="1">
+        <v>175</v>
+      </c>
+      <c r="E107" s="1">
+        <v>150</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="1">
+        <v>55</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F108" s="1">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="1">
+        <v>55</v>
+      </c>
+      <c r="D109" s="1">
+        <v>55</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>3</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="1">
+        <v>55</v>
+      </c>
+      <c r="D110" s="1">
+        <v>175</v>
+      </c>
+      <c r="E110" s="1">
+        <v>150</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45</v>
+      </c>
+      <c r="D112" s="1">
+        <v>55</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45</v>
+      </c>
+      <c r="D113" s="1">
+        <v>175</v>
+      </c>
+      <c r="E113" s="1">
+        <v>225</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45</v>
+      </c>
+      <c r="D115" s="1">
+        <v>55</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45</v>
+      </c>
+      <c r="D116" s="1">
+        <v>175</v>
+      </c>
+      <c r="E116" s="1">
+        <v>225</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="1">
+        <v>55</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="1">
+        <v>55</v>
+      </c>
+      <c r="D118" s="1">
+        <v>60</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="1">
+        <v>55</v>
+      </c>
+      <c r="D119" s="1">
+        <v>200</v>
+      </c>
+      <c r="E119" s="1">
+        <v>377</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1">
+        <v>55</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="1">
+        <v>55</v>
+      </c>
+      <c r="D121" s="1">
+        <v>60</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="1">
+        <v>55</v>
+      </c>
+      <c r="D122" s="1">
+        <v>200</v>
+      </c>
+      <c r="E122" s="1">
+        <v>377</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="1">
+        <v>55</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F123" s="1">
+        <v>4</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="1">
+        <v>55</v>
+      </c>
+      <c r="D124" s="1">
+        <v>60</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F124" s="1">
+        <v>4</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="1">
+        <v>55</v>
+      </c>
+      <c r="D125" s="1">
+        <v>200</v>
+      </c>
+      <c r="E125" s="1">
+        <v>377</v>
+      </c>
+      <c r="F125" s="1">
+        <v>4</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="1">
+        <v>55</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="1">
+        <v>55</v>
+      </c>
+      <c r="D127" s="1">
+        <v>60</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" s="1">
+        <v>55</v>
+      </c>
+      <c r="D128" s="1">
+        <v>200</v>
+      </c>
+      <c r="E128" s="1">
+        <v>77</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="1">
+        <v>40</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" s="1">
+        <v>40</v>
+      </c>
+      <c r="D130" s="1">
+        <v>60</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" s="1">
+        <v>40</v>
+      </c>
+      <c r="D131" s="1">
+        <v>200</v>
+      </c>
+      <c r="E131" s="1">
+        <v>151</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" s="1">
+        <v>85</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="1">
+        <v>85</v>
+      </c>
+      <c r="D133" s="1">
+        <v>60</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="1">
+        <v>85</v>
+      </c>
+      <c r="D134" s="1">
+        <v>200</v>
+      </c>
+      <c r="E134" s="1">
+        <v>23</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="1">
+        <v>40</v>
+      </c>
+      <c r="D135" s="1">
+        <v>20</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1">
+        <v>1</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" s="1">
+        <v>40</v>
+      </c>
+      <c r="D136" s="1">
+        <v>80</v>
+      </c>
+      <c r="E136" s="1">
+        <v>9</v>
+      </c>
+      <c r="F136" s="1">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="1">
+        <v>40</v>
+      </c>
+      <c r="D137" s="1">
+        <v>125</v>
+      </c>
+      <c r="E137" s="1">
+        <v>346</v>
+      </c>
+      <c r="F137" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" s="1">
+        <v>40</v>
+      </c>
+      <c r="D138" s="1">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="1">
+        <v>40</v>
+      </c>
+      <c r="D139" s="1">
+        <v>80</v>
+      </c>
+      <c r="E139" s="1">
+        <v>9</v>
+      </c>
+      <c r="F139" s="1">
+        <v>2</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" s="1">
+        <v>40</v>
+      </c>
+      <c r="D140" s="1">
+        <v>125</v>
+      </c>
+      <c r="E140" s="1">
+        <v>346</v>
+      </c>
+      <c r="F140" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" s="1">
+        <v>40</v>
+      </c>
+      <c r="D141" s="7">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="1">
+        <v>40</v>
+      </c>
+      <c r="D142" s="7">
+        <v>80</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F142" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="1">
+        <v>40</v>
+      </c>
+      <c r="D143" s="7">
+        <v>125</v>
+      </c>
+      <c r="E143" s="1">
+        <v>16</v>
+      </c>
+      <c r="F143" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C144" s="1">
+        <v>60</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="1">
+        <v>60</v>
+      </c>
+      <c r="D145" s="1">
+        <v>80</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C146" s="1">
+        <v>60</v>
+      </c>
+      <c r="D146" s="1">
+        <v>125</v>
+      </c>
+      <c r="E146" s="1">
+        <v>27</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" s="1">
+        <v>85</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C148" s="1">
+        <v>85</v>
+      </c>
+      <c r="D148" s="1">
+        <v>80</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C149" s="1">
+        <v>85</v>
+      </c>
+      <c r="D149" s="1">
+        <v>125</v>
+      </c>
+      <c r="E149" s="1">
+        <v>15</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" s="1">
+        <v>55</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C151" s="1">
+        <v>55</v>
+      </c>
+      <c r="D151" s="1">
+        <v>80</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C152" s="1">
+        <v>55</v>
+      </c>
+      <c r="D152" s="1">
+        <v>125</v>
+      </c>
+      <c r="E152" s="1">
+        <v>29</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J154" s="1">
+        <v>1</v>
+      </c>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1">
+        <v>1</v>
+      </c>
+      <c r="M154" s="1"/>
+      <c r="N154" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1">
+        <v>1</v>
+      </c>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1">
+        <v>1</v>
+      </c>
+      <c r="M155" s="1"/>
+      <c r="N155" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="E156" s="1">
+        <v>4</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1">
+        <v>1</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1</v>
+      </c>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1">
+        <v>1</v>
+      </c>
+      <c r="M156" s="1"/>
+      <c r="N156" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1">
+        <v>1</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1">
+        <v>1</v>
+      </c>
+      <c r="M157" s="1"/>
+      <c r="N157" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>85</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+      <c r="M158" s="1"/>
+      <c r="N158" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="E159" s="1">
+        <v>4</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1">
+        <v>1</v>
+      </c>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1">
+        <v>1</v>
+      </c>
+      <c r="M159" s="1"/>
+      <c r="N159" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98">
-        <v>40</v>
-      </c>
-      <c r="D98">
-        <v>25</v>
-      </c>
-      <c r="E98">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>96</v>
-      </c>
-      <c r="B99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99">
-        <v>40</v>
-      </c>
-      <c r="D99">
-        <v>30</v>
-      </c>
-      <c r="E99">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>96</v>
-      </c>
-      <c r="B100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100">
-        <v>40</v>
-      </c>
-      <c r="D100">
-        <v>35</v>
-      </c>
-      <c r="E100">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>96</v>
-      </c>
-      <c r="B101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101">
-        <v>40</v>
-      </c>
-      <c r="D101">
-        <v>40</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>96</v>
-      </c>
-      <c r="B102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102">
-        <v>40</v>
-      </c>
-      <c r="D102">
-        <v>45</v>
-      </c>
-      <c r="E102">
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>91</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1">
+        <v>10</v>
+      </c>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O162" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>96</v>
-      </c>
-      <c r="B103" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103">
-        <v>40</v>
-      </c>
-      <c r="D103">
-        <v>50</v>
-      </c>
-      <c r="E103">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>96</v>
-      </c>
-      <c r="B104" t="s">
-        <v>25</v>
-      </c>
-      <c r="C104">
-        <v>40</v>
-      </c>
-      <c r="D104">
-        <v>55</v>
-      </c>
-      <c r="E104">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>96</v>
-      </c>
-      <c r="B105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105">
-        <v>40</v>
-      </c>
-      <c r="D105">
-        <v>60</v>
-      </c>
-      <c r="E105">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>96</v>
-      </c>
-      <c r="B106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106">
-        <v>40</v>
-      </c>
-      <c r="D106">
-        <v>65</v>
-      </c>
-      <c r="E106">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>96</v>
-      </c>
-      <c r="B107" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107">
-        <v>40</v>
-      </c>
-      <c r="D107">
-        <v>70</v>
-      </c>
-      <c r="E107">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>96</v>
-      </c>
-      <c r="B108" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108">
-        <v>40</v>
-      </c>
-      <c r="D108">
-        <v>75</v>
-      </c>
-      <c r="E108">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>96</v>
-      </c>
-      <c r="B109" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109">
-        <v>40</v>
-      </c>
-      <c r="D109">
-        <v>80</v>
-      </c>
-      <c r="E109">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>96</v>
-      </c>
-      <c r="B110" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110">
-        <v>40</v>
-      </c>
-      <c r="D110">
-        <v>85</v>
-      </c>
-      <c r="E110">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>96</v>
-      </c>
-      <c r="B111" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111">
-        <v>40</v>
-      </c>
-      <c r="D111">
-        <v>90</v>
-      </c>
-      <c r="E111">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>96</v>
-      </c>
-      <c r="B112" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112">
-        <v>40</v>
-      </c>
-      <c r="D112">
-        <v>95</v>
-      </c>
-      <c r="E112">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>96</v>
-      </c>
-      <c r="B113" t="s">
-        <v>25</v>
-      </c>
-      <c r="C113">
-        <v>40</v>
-      </c>
-      <c r="D113">
-        <v>100</v>
-      </c>
-      <c r="E113">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>96</v>
-      </c>
-      <c r="B114" t="s">
-        <v>25</v>
-      </c>
-      <c r="C114">
-        <v>40</v>
-      </c>
-      <c r="D114">
-        <v>110</v>
-      </c>
-      <c r="E114">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>96</v>
-      </c>
-      <c r="B115" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115">
-        <v>40</v>
-      </c>
-      <c r="D115">
-        <v>120</v>
-      </c>
-      <c r="E115">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>96</v>
-      </c>
-      <c r="B116" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116">
-        <v>40</v>
-      </c>
-      <c r="D116">
-        <v>125</v>
-      </c>
-      <c r="E116">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>96</v>
-      </c>
-      <c r="B117" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117">
-        <v>40</v>
-      </c>
-      <c r="D117">
-        <v>130</v>
-      </c>
-      <c r="E117">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>96</v>
-      </c>
-      <c r="B118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118">
-        <v>40</v>
-      </c>
-      <c r="D118">
-        <v>140</v>
-      </c>
-      <c r="E118">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>96</v>
-      </c>
-      <c r="B119" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119">
-        <v>40</v>
-      </c>
-      <c r="D119">
-        <v>145</v>
-      </c>
-      <c r="E119">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>96</v>
-      </c>
-      <c r="B120" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120">
-        <v>40</v>
-      </c>
-      <c r="D120">
-        <v>150</v>
-      </c>
-      <c r="E120">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>96</v>
-      </c>
-      <c r="B121" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121">
-        <v>40</v>
-      </c>
-      <c r="D121">
-        <v>160</v>
-      </c>
-      <c r="E121">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>96</v>
-      </c>
-      <c r="B122" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122">
-        <v>40</v>
-      </c>
-      <c r="D122">
-        <v>175</v>
-      </c>
-      <c r="E122">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>96</v>
-      </c>
-      <c r="B123" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123">
-        <v>40</v>
-      </c>
-      <c r="D123">
-        <v>180</v>
-      </c>
-      <c r="E123">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>96</v>
-      </c>
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124">
-        <v>40</v>
-      </c>
-      <c r="D124">
-        <v>200</v>
-      </c>
-      <c r="E124">
-        <v>689</v>
+      <c r="N163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O163" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O164" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0.15</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O165" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>15</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O167" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajikumarjs/personal/reli_engine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6CB2A-C903-4C43-9A8B-FC2E0890BD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2B9F07-B6FC-424B-8EC2-76F744A1B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{C431CB80-CA07-A34D-829D-C72251BD8198}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" activeTab="1" xr2:uid="{C431CB80-CA07-A34D-829D-C72251BD8198}"/>
   </bookViews>
   <sheets>
     <sheet name="component" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="97">
   <si>
     <t>carbon film</t>
   </si>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2D38E2-A89A-BE40-8734-9D5919222499}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,6 +1473,9 @@
       <c r="B35" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
@@ -1483,6 +1486,9 @@
       </c>
       <c r="B36" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
@@ -1552,9 +1558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D113D345-D12B-094C-864F-935BFCFCA585}">
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O162" sqref="O162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5087,6 +5093,12 @@
       </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
+      <c r="N160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161">
@@ -5106,6 +5118,12 @@
       </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
+      <c r="N161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajikumarjs/personal/reli_engine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2B9F07-B6FC-424B-8EC2-76F744A1B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED654546-E182-0D4E-8467-AB2BD585AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" activeTab="1" xr2:uid="{C431CB80-CA07-A34D-829D-C72251BD8198}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="1" xr2:uid="{C431CB80-CA07-A34D-829D-C72251BD8198}"/>
   </bookViews>
   <sheets>
     <sheet name="component" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="100">
   <si>
     <t>carbon film</t>
   </si>
@@ -255,15 +255,6 @@
     <t>Inductors</t>
   </si>
   <si>
-    <t>U/Umax ≤ 0.1, Uref/Umax 0.5</t>
-  </si>
-  <si>
-    <t>U/Umax 0.7, Uref/Umax 0.5</t>
-  </si>
-  <si>
-    <t>U/Umax 1, Uref/Umax 0.5</t>
-  </si>
-  <si>
     <t>Degree of Integration LSI &gt; 100, &gt; 500</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
   </si>
   <si>
     <t>101 - 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switches and buttons for higher electrical load </t>
   </si>
   <si>
     <r>
@@ -344,7 +332,28 @@
     <t>Voltage  ratio U/Umax</t>
   </si>
   <si>
-    <t xml:space="preserve">Switches and buttons for light-current applications </t>
+    <t>Z-Diodes</t>
+  </si>
+  <si>
+    <t>Uref/Umax 0.5</t>
+  </si>
+  <si>
+    <t>U/Umax</t>
+  </si>
+  <si>
+    <t>light-current applications</t>
+  </si>
+  <si>
+    <t>Switches and buttons</t>
+  </si>
+  <si>
+    <t>higher electrical load</t>
+  </si>
+  <si>
+    <t>&lt;=0.1</t>
+  </si>
+  <si>
+    <t>"Digital logic families and bus interfaces,busdriver and receiver circuit"</t>
   </si>
 </sst>
 </file>
@@ -789,7 +798,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1181,7 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -1226,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -1292,7 +1301,7 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1">
         <v>0.7</v>
@@ -1312,7 +1321,7 @@
         <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1332,7 +1341,7 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1349,7 +1358,7 @@
         <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1369,7 +1378,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1389,7 +1398,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1406,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -1423,13 +1432,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1">
         <v>0.5</v>
@@ -1440,13 +1449,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1457,10 +1466,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1474,7 +1483,7 @@
         <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1485,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
@@ -1556,11 +1565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D113D345-D12B-094C-864F-935BFCFCA585}">
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O162" sqref="O162"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P143" sqref="P143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,11 +1577,12 @@
     <col min="2" max="2" width="57.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10.83203125" style="1"/>
     <col min="14" max="14" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1618,8 +1628,11 @@
       <c r="O1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1653,7 +1666,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1670,7 +1683,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1687,7 +1700,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1704,7 +1717,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1721,7 +1734,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1755,7 +1768,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1789,7 +1802,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1806,7 +1819,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1840,7 +1853,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1857,7 +1870,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3439,7 +3452,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>55</v>
@@ -3474,7 +3487,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>55</v>
@@ -3509,7 +3522,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>55</v>
@@ -3544,7 +3557,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O108" s="1">
         <v>1</v>
@@ -3579,7 +3592,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O109" s="1">
         <v>1</v>
@@ -3614,7 +3627,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O110" s="1">
         <v>1</v>
@@ -3625,7 +3638,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C111" s="1">
         <v>45</v>
@@ -3649,7 +3662,7 @@
       <c r="N111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O111" s="1" t="s">
+      <c r="O111" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3658,7 +3671,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C112" s="1">
         <v>45</v>
@@ -3682,7 +3695,7 @@
       <c r="N112" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O112" s="1" t="s">
+      <c r="O112" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3691,7 +3704,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C113" s="1">
         <v>45</v>
@@ -3715,7 +3728,7 @@
       <c r="N113" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O113" s="1" t="s">
+      <c r="O113" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3724,7 +3737,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1">
         <v>45</v>
@@ -3757,7 +3770,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C115" s="1">
         <v>45</v>
@@ -3790,7 +3803,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C116" s="1">
         <v>45</v>
@@ -3847,9 +3860,9 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O117" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O117" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3882,9 +3895,9 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O118" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O118" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3917,9 +3930,9 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O119" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O119" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3952,7 +3965,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O120" s="1">
         <v>0.5</v>
@@ -3987,7 +4000,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O121" s="1">
         <v>0.5</v>
@@ -4022,7 +4035,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O122" s="1">
         <v>0.5</v>
@@ -4057,7 +4070,7 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O123" s="1">
         <v>1</v>
@@ -4092,7 +4105,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O124" s="1">
         <v>1</v>
@@ -4127,7 +4140,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O125" s="1">
         <v>1</v>
@@ -4205,7 +4218,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4229,7 +4242,7 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4253,7 +4266,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4277,7 +4290,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4301,7 +4314,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4325,7 +4338,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4349,7 +4362,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4378,13 +4391,16 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="O135" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P135" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4413,13 +4429,16 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O136" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P136" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4448,13 +4467,16 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O137" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+      <c r="P137" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4483,13 +4505,16 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="O138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P138" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4518,13 +4543,16 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O139" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P139" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4553,13 +4581,16 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O140" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4588,13 +4619,16 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="O141" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P141" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4623,13 +4657,16 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O142" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P142" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4658,13 +4695,16 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O143" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O143" s="1">
+        <v>1</v>
+      </c>
+      <c r="P143" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4675,7 +4715,7 @@
         <v>60</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E144" s="1">
         <v>0.75</v>
@@ -4688,7 +4728,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4712,7 +4752,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4736,7 +4776,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4747,7 +4787,7 @@
         <v>85</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E147" s="1">
         <v>0.43</v>
@@ -4760,7 +4800,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4784,7 +4824,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4808,7 +4848,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4819,7 +4859,7 @@
         <v>55</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E150" s="1">
         <v>0.79</v>
@@ -4832,7 +4872,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4856,7 +4896,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4880,12 +4920,12 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -4895,12 +4935,12 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -4919,18 +4959,18 @@
       </c>
       <c r="M154" s="1"/>
       <c r="N154" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E155" s="1">
         <v>1.8</v>
@@ -4949,18 +4989,18 @@
       </c>
       <c r="M155" s="1"/>
       <c r="N155" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E156" s="1">
         <v>4</v>
@@ -4979,18 +5019,18 @@
       </c>
       <c r="M156" s="1"/>
       <c r="N156" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O156" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O156" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -5009,18 +5049,18 @@
       </c>
       <c r="M157" s="1"/>
       <c r="N157" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E158" s="1">
         <v>1.8</v>
@@ -5039,18 +5079,18 @@
       </c>
       <c r="M158" s="1"/>
       <c r="N158" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E159" s="1">
         <v>4</v>
@@ -5069,13 +5109,13 @@
       </c>
       <c r="M159" s="1"/>
       <c r="N159" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O159" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O159" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5093,19 +5133,16 @@
       </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
-      <c r="N160" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -5118,14 +5155,11 @@
       </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
-      <c r="N161" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P161" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5139,10 +5173,10 @@
         <v>58</v>
       </c>
       <c r="O162" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5159,7 +5193,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5176,7 +5210,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5196,13 +5230,13 @@
         <v>0.15</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O165" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5222,13 +5256,13 @@
         <v>1</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O166" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5248,11 +5282,155 @@
         <v>15</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O167" s="1">
         <v>4</v>
       </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>92</v>
+      </c>
+      <c r="C168" s="1">
+        <v>55</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>92</v>
+      </c>
+      <c r="C169" s="1">
+        <v>55</v>
+      </c>
+      <c r="D169" s="1">
+        <v>60</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>92</v>
+      </c>
+      <c r="C170" s="1">
+        <v>55</v>
+      </c>
+      <c r="D170" s="1">
+        <v>200</v>
+      </c>
+      <c r="E170" s="1">
+        <v>77</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>92</v>
+      </c>
+      <c r="C171" s="1">
+        <v>40</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>92</v>
+      </c>
+      <c r="C172" s="1">
+        <v>40</v>
+      </c>
+      <c r="D172" s="1">
+        <v>60</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>92</v>
+      </c>
+      <c r="C173" s="1">
+        <v>40</v>
+      </c>
+      <c r="D173" s="1">
+        <v>200</v>
+      </c>
+      <c r="E173" s="1">
+        <v>151</v>
+      </c>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
